--- a/xlsx/西伯利亚_intext.xlsx
+++ b/xlsx/西伯利亚_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
   <si>
     <t>西伯利亚</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_西伯利亚</t>
+    <t>政策_政策_美国_西伯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Russian_language</t>
@@ -41,31 +41,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E8%81%AF%E9%82%A6%E7%AE%A1%E5%8D%80</t>
   </si>
   <si>
-    <t>西伯利亞聯邦管區</t>
+    <t>西伯利亚联邦管区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9E</t>
   </si>
   <si>
-    <t>北亞</t>
+    <t>北亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%B1%B1</t>
   </si>
   <si>
-    <t>烏拉山</t>
+    <t>乌拉山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E6%B5%B7</t>
   </si>
   <si>
-    <t>北極海</t>
+    <t>北极海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B</t>
   </si>
   <si>
-    <t>哈薩克</t>
+    <t>哈萨克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3_(%E5%8D%95%E4%BD%8D)</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%AE%E5%8D%91</t>
   </si>
   <si>
-    <t>鮮卑</t>
+    <t>鲜卑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E4%BC%AF</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>烏拉山脈</t>
+    <t>乌拉山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%86%B0%E6%B4%8B</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BB%A4%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>白令海峽</t>
+    <t>白令海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%AF%E6%8B%89%E5%A4%AB%E4%BA%BA</t>
   </si>
   <si>
-    <t>東斯拉夫人</t>
+    <t>东斯拉夫人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%A4%AB%E5%93%A5%E7%BE%85%E5%BE%B7</t>
   </si>
   <si>
-    <t>諾夫哥羅德</t>
+    <t>诺夫哥罗德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E5%B0%BC%E5%A1%9E%E6%B2%B3</t>
   </si>
   <si>
-    <t>葉尼塞河</t>
+    <t>叶尼塞河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%87%E4%BD%A3%E5%86%9B</t>
@@ -239,19 +239,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E8%96%A9%E5%85%8B</t>
   </si>
   <si>
-    <t>哥薩克</t>
+    <t>哥萨克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E5%BF%85%E5%85%92%E6%B1%97%E5%9C%8B</t>
   </si>
   <si>
-    <t>失必兒汗國</t>
+    <t>失必儿汗国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E7%88%BE%E9%A6%AC%E5%85%8B%C2%B7%E9%BD%8A%E8%8E%AB%E8%8F%B2%E8%91%89%E7%B6%AD%E5%A5%87</t>
   </si>
   <si>
-    <t>葉爾馬克·齊莫菲葉維奇</t>
+    <t>叶尔马克·齐莫菲叶维奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%9B%86</t>
   </si>
   <si>
-    <t>萬曆</t>
+    <t>万历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B4%87%E7%A6%8E</t>
   </si>
   <si>
-    <t>崇禎</t>
+    <t>崇祯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E9%9C%8D%E6%AC%A1%E5%85%8B%E6%B5%B7</t>
@@ -287,19 +287,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%86%E6%B2%BB</t>
   </si>
   <si>
-    <t>順治</t>
+    <t>顺治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E9%BE%8D%E6%B1%9F</t>
   </si>
   <si>
-    <t>黑龍江</t>
+    <t>黑龙江</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A7%E5%8F%A4%E5%A1%94</t>
   </si>
   <si>
-    <t>寧古塔</t>
+    <t>宁古塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A0%E4%BA%AC</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%97%A9%E4%B9%8B%E4%BA%82</t>
   </si>
   <si>
-    <t>三藩之亂</t>
+    <t>三藩之乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E6%98%A5</t>
@@ -341,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%A6%E7%90%BF</t>
   </si>
   <si>
-    <t>璦琿</t>
+    <t>瑷珲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%B8%83%E6%A5%9A%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>尼布楚條約</t>
+    <t>尼布楚条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%85%B4%E5%AE%89%E5%B2%AD</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄國</t>
+    <t>俄国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E6%9C%88%E9%9D%A9%E5%91%BD</t>
@@ -377,19 +377,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%BB%8D</t>
   </si>
   <si>
-    <t>白軍</t>
+    <t>白军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%9D%B1%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>遠東共和國</t>
+    <t>远东共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%8A%AA%E7%83%8F%E6%A2%81%E6%B5%B7</t>
   </si>
   <si>
-    <t>唐努烏梁海</t>
+    <t>唐努乌梁海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E4%BF%84</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%94%BE</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E9%9F%83%E9%9D%BC%E4%BA%BA</t>
   </si>
   <si>
-    <t>西伯利亞韃靼人</t>
+    <t>西伯利亚鞑靼人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9A%E6%B1%97%E5%9B%BD</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E6%96%87</t>
   </si>
   <si>
-    <t>俄羅斯文</t>
+    <t>俄罗斯文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%94%E7%8F%AD</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8C%97%E8%99%8E</t>
   </si>
   <si>
-    <t>東北虎</t>
+    <t>东北虎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E5%AF%9F%E5%8A%A0%E5%BD%BC%E5%BE%97%E5%B7%B4%E7%94%AB%E6%B4%9B%E5%A4%AB%E6%96%AF%E5%85%8B</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%A6%E7%89%A9</t>
   </si>
   <si>
-    <t>礦物</t>
+    <t>矿物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E7%94%B0</t>
@@ -515,19 +515,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E5%B9%B3%E5%8E%9F</t>
   </si>
   <si>
-    <t>西西伯利亞平原</t>
+    <t>西西伯利亚平原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E9%AB%98%E5%8E%9F</t>
   </si>
   <si>
-    <t>中西伯利亞高原</t>
+    <t>中西伯利亚高原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%BC%E6%BE%A4</t>
   </si>
   <si>
-    <t>沼澤</t>
+    <t>沼泽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8A%A0%E6%9E%97</t>
@@ -539,19 +539,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%8D%E5%8E%9F</t>
   </si>
   <si>
-    <t>凍原</t>
+    <t>冻原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E4%B9%85%E5%87%8D%E5%9C%9F</t>
   </si>
   <si>
-    <t>永久凍土</t>
+    <t>永久冻土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B4%8D%E5%B7%B4%E7%88%BE%E6%B2%B3</t>
   </si>
   <si>
-    <t>阿納巴爾河</t>
+    <t>阿纳巴尔河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8A%A0%E6%8B%89%E6%B2%B3</t>
@@ -563,25 +563,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E8%BF%AA%E5%90%89%E7%88%BE%E5%8D%A1%E6%B2%B3</t>
   </si>
   <si>
-    <t>因迪吉爾卡河</t>
+    <t>因迪吉尔卡河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8D%E7%88%BE%E9%BD%8A%E6%96%AF%E6%B2%B3</t>
   </si>
   <si>
-    <t>額爾齊斯河</t>
+    <t>额尔齐斯河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%9B%B7%E9%A6%AC%E6%B2%B3</t>
   </si>
   <si>
-    <t>科雷馬河</t>
+    <t>科雷马河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8A%A0%E7%88%BE%E6%B9%96</t>
   </si>
   <si>
-    <t>貝加爾湖</t>
+    <t>贝加尔湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%92%E6%8B%BF%E6%B2%B3</t>
@@ -599,19 +599,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E6%B0%B4%E5%BA%AB</t>
   </si>
   <si>
-    <t>新西伯利亞水庫</t>
+    <t>新西伯利亚水库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E7%95%A2%E6%B2%B3</t>
   </si>
   <si>
-    <t>鄂畢河</t>
+    <t>鄂毕河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%9A%AE%E8%93%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>波皮蓋河</t>
+    <t>波皮盖河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B3%89%E9%80%9A%E5%8F%A4%E6%96%AF%E6%B2%B3</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B8%83%E8%98%87%E6%B9%96</t>
   </si>
   <si>
-    <t>烏布蘇湖</t>
+    <t>乌布苏湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BA%B3%E6%B2%B3</t>
@@ -641,61 +641,61 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%B3%B0%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>阿爾泰山脈</t>
+    <t>阿尔泰山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8A%A0%E7%88%BE%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>貝加爾山脈</t>
+    <t>贝加尔山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E7%88%BE%E9%81%94%E7%8F%AD%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>哈馬爾達班山脈</t>
+    <t>哈马尔达班山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E7%88%BE%E6%96%AF%E5%9F%BA%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>切爾斯基山脈</t>
+    <t>切尔斯基山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E6%A0%BC%E6%9C%B1%E7%88%BE%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>朱格朱爾山脈</t>
+    <t>朱格朱尔山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%88%BE%E4%BA%9E%E5%85%8B%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>科爾亞克山脈</t>
+    <t>科尔亚克山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%BD%A5%E5%B6%BA</t>
   </si>
   <si>
-    <t>薩彥嶺</t>
+    <t>萨彦岭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%8A%AA%E7%83%8F%E6%8B%89%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>唐努烏拉山脈</t>
+    <t>唐努乌拉山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%A7%91%E6%8F%9A%E6%96%AF%E5%85%8B%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>維科揚斯克山脈</t>
+    <t>维科扬斯克山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B8%83%E6%B4%9B%E8%AB%BE%E5%A4%AB%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>雅布洛諾夫山脈</t>
+    <t>雅布洛诺夫山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E6%97%8F</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%90</t>
   </si>
   <si>
-    <t>東歐</t>
+    <t>东欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%8B%89%E5%A4%AB%E4%BA%BA</t>
@@ -737,13 +737,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>圖瓦人</t>
+    <t>图瓦人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%BA%AB%E7%89%B9%E4%BA%BA</t>
   </si>
   <si>
-    <t>雅庫特人</t>
+    <t>雅库特人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%8F%A4%E6%96%AF%E4%BA%BA</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%87%8C%E4%BA%9E%E5%85%8B%E6%97%8F</t>
   </si>
   <si>
-    <t>科里亞克族</t>
+    <t>科里亚克族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%8D%A1%E5%90%89%E5%B0%94%E4%BA%BA</t>
@@ -773,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>新西伯利亞</t>
+    <t>新西伯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%8D%9A%E7%88%BE%E6%96%AF%E5%85%8B</t>
   </si>
   <si>
-    <t>托博爾斯克</t>
+    <t>托博尔斯克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E6%9C%A8%E6%96%AF%E5%85%8B</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%88%BE%E5%BA%AB%E8%8C%A8%E5%85%8B</t>
   </si>
   <si>
-    <t>伊爾庫茨克</t>
+    <t>伊尔库茨克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E6%9C%A8%E6%96%AF%E5%85%8B</t>
@@ -803,61 +803,61 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E7%88%BE%E8%81%94%E9%82%A6%E5%8D%80</t>
   </si>
   <si>
-    <t>烏拉爾联邦區</t>
+    <t>乌拉尔联邦区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E8%81%94%E9%82%A6%E5%8D%80</t>
   </si>
   <si>
-    <t>西伯利亞联邦區</t>
+    <t>西伯利亚联邦区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%9D%B1%E8%81%AF%E9%82%A6%E7%AE%A1%E5%8D%80</t>
   </si>
   <si>
-    <t>遠東聯邦管區</t>
+    <t>远东联邦管区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%93%88%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>薩哈共和國</t>
+    <t>萨哈共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%B3%B0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿爾泰共和國</t>
+    <t>阿尔泰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E7%88%BE%E8%AB%BE-%E9%98%BF%E7%88%BE%E6%B3%B0%E6%96%AF%E5%85%8B</t>
   </si>
   <si>
-    <t>戈爾諾-阿爾泰斯克</t>
+    <t>戈尔诺-阿尔泰斯克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E4%BA%9E%E7%89%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>布里亞特共和國</t>
+    <t>布里亚特共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%98%AD%E7%83%8F%E5%BE%B7</t>
   </si>
   <si>
-    <t>烏蘭烏德</t>
+    <t>乌兰乌德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%BA%AB%E8%8C%A8%E5%85%8B</t>
   </si>
   <si>
-    <t>雅庫茨克</t>
+    <t>雅库茨克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>圖瓦共和國</t>
+    <t>图瓦共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%AD%9C%E5%8B%92</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%B3%B0%E9%82%8A%E7%96%86%E5%8D%80</t>
   </si>
   <si>
-    <t>阿爾泰邊疆區</t>
+    <t>阿尔泰边疆区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E7%91%99%E5%B0%94</t>
@@ -893,19 +893,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E6%96%AF%E8%AB%BE%E4%BA%9E%E7%88%BE%E6%96%AF%E5%85%8B%E9%82%8A%E7%96%86%E5%8D%80</t>
   </si>
   <si>
-    <t>克拉斯諾亞爾斯克邊疆區</t>
+    <t>克拉斯诺亚尔斯克边疆区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E6%96%AF%E8%AB%BE%E4%BA%9E%E7%88%BE%E6%96%AF%E5%85%8B</t>
   </si>
   <si>
-    <t>克拉斯諾亞爾斯克</t>
+    <t>克拉斯诺亚尔斯克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%88%BE%E5%BA%AB%E8%8C%A8%E5%85%8B%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊爾庫茨克州</t>
+    <t>伊尔库茨克州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%BA%A6%E7%BD%97%E6%B2%83%E5%B7%9E</t>
@@ -917,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%BA%A5%E7%BE%85%E6%B2%83</t>
   </si>
   <si>
-    <t>克麥羅沃</t>
+    <t>克麦罗沃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9A%E5%B7%9E</t>
@@ -953,19 +953,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%9C%E5%8D%91</t>
   </si>
   <si>
-    <t>鲜卑</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>西伯利亞鐵路</t>
+    <t>西伯利亚铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%8F%A4%E6%96%AF%E5%A4%A7%E7%88%86%E7%82%B8</t>
@@ -977,13 +974,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%88%AA%E7%A9%BA593%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>俄羅斯航空593號班機空難</t>
+    <t>俄罗斯航空593号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -5919,7 +5916,7 @@
         <v>313</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>34</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5945,10 +5942,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5974,10 +5971,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6003,10 +6000,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6032,10 +6029,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -6061,10 +6058,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6090,10 +6087,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>

--- a/xlsx/西伯利亚_intext.xlsx
+++ b/xlsx/西伯利亚_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
   <si>
     <t>西伯利亚</t>
   </si>
@@ -29,13 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_西伯利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Russian_language</t>
-  </si>
-  <si>
-    <t>Russian language</t>
+    <t>体育运动_体育运动_犹太人大屠杀_西伯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E8%81%AF%E9%82%A6%E7%AE%A1%E5%8D%80</t>
@@ -1344,7 +1338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1456,7 +1450,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -1485,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -1514,7 +1508,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -1543,7 +1537,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -1572,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -1601,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -1630,7 +1624,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -1659,7 +1653,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -1688,7 +1682,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -1717,7 +1711,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -1804,7 +1798,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -1833,7 +1827,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -1862,7 +1856,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -1891,7 +1885,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
         <v>4</v>
@@ -1920,7 +1914,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -1949,7 +1943,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>4</v>
@@ -2123,7 +2117,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -2152,7 +2146,7 @@
         <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -2268,7 +2262,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -2297,7 +2291,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -2326,7 +2320,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -2355,7 +2349,7 @@
         <v>70</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -2384,7 +2378,7 @@
         <v>72</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -2413,7 +2407,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -2442,7 +2436,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -2471,7 +2465,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -2500,7 +2494,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -2732,7 +2726,7 @@
         <v>96</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -2790,7 +2784,7 @@
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -2993,7 +2987,7 @@
         <v>114</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H57" t="s">
         <v>4</v>
@@ -3022,7 +3016,7 @@
         <v>116</v>
       </c>
       <c r="G58" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -3080,7 +3074,7 @@
         <v>120</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -3109,7 +3103,7 @@
         <v>122</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -3138,7 +3132,7 @@
         <v>124</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -3196,7 +3190,7 @@
         <v>128</v>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -3428,7 +3422,7 @@
         <v>144</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -3457,7 +3451,7 @@
         <v>146</v>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -3776,7 +3770,7 @@
         <v>168</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -3805,7 +3799,7 @@
         <v>170</v>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -3834,7 +3828,7 @@
         <v>172</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -3921,7 +3915,7 @@
         <v>178</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="s">
         <v>4</v>
@@ -3950,7 +3944,7 @@
         <v>180</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -4617,7 +4611,7 @@
         <v>226</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -4646,7 +4640,7 @@
         <v>228</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -4704,7 +4698,7 @@
         <v>232</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -4733,7 +4727,7 @@
         <v>234</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -4965,7 +4959,7 @@
         <v>250</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -4994,7 +4988,7 @@
         <v>252</v>
       </c>
       <c r="G126" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -5023,7 +5017,7 @@
         <v>254</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -5052,7 +5046,7 @@
         <v>256</v>
       </c>
       <c r="G128" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -5081,7 +5075,7 @@
         <v>258</v>
       </c>
       <c r="G129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5110,7 +5104,7 @@
         <v>260</v>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -5168,7 +5162,7 @@
         <v>264</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -5226,7 +5220,7 @@
         <v>268</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -5371,7 +5365,7 @@
         <v>278</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -5400,7 +5394,7 @@
         <v>280</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5574,7 +5568,7 @@
         <v>292</v>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -5603,7 +5597,7 @@
         <v>294</v>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -5661,7 +5655,7 @@
         <v>298</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -5690,7 +5684,7 @@
         <v>300</v>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -5806,7 +5800,7 @@
         <v>308</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -5829,13 +5823,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -5858,10 +5852,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="F156" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6009,7 +6003,7 @@
         <v>320</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6038,7 +6032,7 @@
         <v>322</v>
       </c>
       <c r="G162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -6073,35 +6067,6 @@
         <v>4</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>0</v>
-      </c>
-      <c r="C164" t="s">
-        <v>1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>163</v>
-      </c>
-      <c r="E164" t="s">
-        <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1</v>
-      </c>
-      <c r="H164" t="s">
-        <v>4</v>
-      </c>
-      <c r="I164" t="n">
         <v>3</v>
       </c>
     </row>
